--- a/data/pca/factorExposure/factorExposure_2009-11-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004350514707832914</v>
+        <v>0.01664880540218444</v>
       </c>
       <c r="C2">
-        <v>-0.009931098387199029</v>
+        <v>0.001001709860661333</v>
       </c>
       <c r="D2">
-        <v>0.001221716043048174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007682975556028848</v>
+      </c>
+      <c r="E2">
+        <v>0.0004241104984837783</v>
+      </c>
+      <c r="F2">
+        <v>0.01158420056002777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03672682059253085</v>
+        <v>0.0937269081389548</v>
       </c>
       <c r="C4">
-        <v>-0.1103206404782463</v>
+        <v>0.01531363510526642</v>
       </c>
       <c r="D4">
-        <v>0.03340658384422784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08350917703740181</v>
+      </c>
+      <c r="E4">
+        <v>0.02814770497190245</v>
+      </c>
+      <c r="F4">
+        <v>-0.03087979650243934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.05026428512640893</v>
+        <v>0.1577532792496923</v>
       </c>
       <c r="C6">
-        <v>-0.1224391509574751</v>
+        <v>0.02543466193280778</v>
       </c>
       <c r="D6">
-        <v>-0.04784812148675097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02106389228491733</v>
+      </c>
+      <c r="E6">
+        <v>0.011898727956686</v>
+      </c>
+      <c r="F6">
+        <v>-0.04592928880679463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01500734135175289</v>
+        <v>0.06272160779040011</v>
       </c>
       <c r="C7">
-        <v>-0.08158357866014955</v>
+        <v>-0.001629442112361038</v>
       </c>
       <c r="D7">
-        <v>0.007703819648407042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05304491943308073</v>
+      </c>
+      <c r="E7">
+        <v>0.009771851046598619</v>
+      </c>
+      <c r="F7">
+        <v>-0.04785330138613114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001746493381340958</v>
+        <v>0.05713877512608874</v>
       </c>
       <c r="C8">
-        <v>-0.06638450536795197</v>
+        <v>-0.01366065142614483</v>
       </c>
       <c r="D8">
-        <v>-0.01834562701716956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03348654871951402</v>
+      </c>
+      <c r="E8">
+        <v>0.01734096229975696</v>
+      </c>
+      <c r="F8">
+        <v>0.02794786413372906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03147184268093091</v>
+        <v>0.07118215333477945</v>
       </c>
       <c r="C9">
-        <v>-0.09417280293939882</v>
+        <v>0.01086457402889648</v>
       </c>
       <c r="D9">
-        <v>0.03659336942759184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08604479915799848</v>
+      </c>
+      <c r="E9">
+        <v>0.02287854483198599</v>
+      </c>
+      <c r="F9">
+        <v>-0.04765646579964818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01563216257807666</v>
+        <v>0.09497036974961229</v>
       </c>
       <c r="C10">
-        <v>-0.0280863475037691</v>
+        <v>0.02073152960363904</v>
       </c>
       <c r="D10">
-        <v>-0.1216703470555831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1701602442013542</v>
+      </c>
+      <c r="E10">
+        <v>-0.03565817473535582</v>
+      </c>
+      <c r="F10">
+        <v>0.05463310093445044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03450178302511268</v>
+        <v>0.0875822052125499</v>
       </c>
       <c r="C11">
-        <v>-0.09646686648899404</v>
+        <v>0.01040427337207577</v>
       </c>
       <c r="D11">
-        <v>0.05005695365648686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1167488586368657</v>
+      </c>
+      <c r="E11">
+        <v>0.04625088965927957</v>
+      </c>
+      <c r="F11">
+        <v>-0.02181584565941656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03408301437511774</v>
+        <v>0.09232604677652599</v>
       </c>
       <c r="C12">
-        <v>-0.1071393320700475</v>
+        <v>0.007798350111485021</v>
       </c>
       <c r="D12">
-        <v>0.04986254612485734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1311191638622417</v>
+      </c>
+      <c r="E12">
+        <v>0.04756162489535411</v>
+      </c>
+      <c r="F12">
+        <v>-0.0263004394424804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01183019247445074</v>
+        <v>0.04165616802669736</v>
       </c>
       <c r="C13">
-        <v>-0.03618261924407956</v>
+        <v>0.003038723194908207</v>
       </c>
       <c r="D13">
-        <v>0.03205826048686294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05193430619762122</v>
+      </c>
+      <c r="E13">
+        <v>-0.008566000507749229</v>
+      </c>
+      <c r="F13">
+        <v>-0.00283806555071769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01975453463696334</v>
+        <v>0.02262239666766776</v>
       </c>
       <c r="C14">
-        <v>-0.02631821296353886</v>
+        <v>0.01367709364668244</v>
       </c>
       <c r="D14">
-        <v>-0.001079884876428631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03303784793600738</v>
+      </c>
+      <c r="E14">
+        <v>0.01737507723549742</v>
+      </c>
+      <c r="F14">
+        <v>-0.01366465185836304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01424676050311159</v>
+        <v>0.0330669268794859</v>
       </c>
       <c r="C15">
-        <v>-0.03224422495151311</v>
+        <v>0.004759179676770419</v>
       </c>
       <c r="D15">
-        <v>0.009386904870505272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04491822752700542</v>
+      </c>
+      <c r="E15">
+        <v>0.005800886593553043</v>
+      </c>
+      <c r="F15">
+        <v>-0.02321665828964473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02455859030782108</v>
+        <v>0.07424728758789663</v>
       </c>
       <c r="C16">
-        <v>-0.09812422613966219</v>
+        <v>0.001546208496912636</v>
       </c>
       <c r="D16">
-        <v>0.04101834376288227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253279896597048</v>
+      </c>
+      <c r="E16">
+        <v>0.06155759097581764</v>
+      </c>
+      <c r="F16">
+        <v>-0.02394499940657356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03220903167755015</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003423931623007931</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0194265488098126</v>
+      </c>
+      <c r="E18">
+        <v>-0.007417114001595683</v>
+      </c>
+      <c r="F18">
+        <v>0.004332690058162687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01651222408601709</v>
+        <v>0.06077575886104707</v>
       </c>
       <c r="C20">
-        <v>-0.05650343376161954</v>
+        <v>0.0002399676296642689</v>
       </c>
       <c r="D20">
-        <v>0.009285568458176293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07713664802265476</v>
+      </c>
+      <c r="E20">
+        <v>0.05541852245907727</v>
+      </c>
+      <c r="F20">
+        <v>-0.02242942238362076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01553898636133873</v>
+        <v>0.04054938689025539</v>
       </c>
       <c r="C21">
-        <v>-0.02219337837923194</v>
+        <v>0.006439922957410021</v>
       </c>
       <c r="D21">
-        <v>0.0044317522457599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03725898154019139</v>
+      </c>
+      <c r="E21">
+        <v>-0.005692499921105183</v>
+      </c>
+      <c r="F21">
+        <v>0.02386921105840793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.006882119082036144</v>
+        <v>0.04349901929761585</v>
       </c>
       <c r="C22">
-        <v>-0.03211648798967712</v>
+        <v>0.0006770603168713706</v>
       </c>
       <c r="D22">
-        <v>-0.03219886081336114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004457705953528763</v>
+      </c>
+      <c r="E22">
+        <v>0.03037554356683662</v>
+      </c>
+      <c r="F22">
+        <v>0.03691427385463436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.006868487681607365</v>
+        <v>0.04348461412981987</v>
       </c>
       <c r="C23">
-        <v>-0.03206088445303022</v>
+        <v>0.0006727204033022627</v>
       </c>
       <c r="D23">
-        <v>-0.03226699759631873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004462341697241108</v>
+      </c>
+      <c r="E23">
+        <v>0.03057710365161908</v>
+      </c>
+      <c r="F23">
+        <v>0.036878165417848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02536959746440626</v>
+        <v>0.08009894248129271</v>
       </c>
       <c r="C24">
-        <v>-0.1044111694288772</v>
+        <v>0.001979655099314657</v>
       </c>
       <c r="D24">
-        <v>0.04642734435580376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1208546990491477</v>
+      </c>
+      <c r="E24">
+        <v>0.04898893654699223</v>
+      </c>
+      <c r="F24">
+        <v>-0.02605698368328836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02923435205723218</v>
+        <v>0.08478692653245011</v>
       </c>
       <c r="C25">
-        <v>-0.1005298445546501</v>
+        <v>0.004308073738658767</v>
       </c>
       <c r="D25">
-        <v>0.05182071027893803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094340116024321</v>
+      </c>
+      <c r="E25">
+        <v>0.03262157636696589</v>
+      </c>
+      <c r="F25">
+        <v>-0.02655202153806127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02695553723694467</v>
+        <v>0.05809695836640131</v>
       </c>
       <c r="C26">
-        <v>-0.04540585058136866</v>
+        <v>0.01432623552922762</v>
       </c>
       <c r="D26">
-        <v>-0.004035070262173106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04032839790392548</v>
+      </c>
+      <c r="E26">
+        <v>0.02852716614139</v>
+      </c>
+      <c r="F26">
+        <v>0.009462897625781891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.01679712349895324</v>
+        <v>0.1403296697147184</v>
       </c>
       <c r="C28">
-        <v>-0.05790409743418729</v>
+        <v>0.02026985323528289</v>
       </c>
       <c r="D28">
-        <v>-0.2125338999552453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615604737432691</v>
+      </c>
+      <c r="E28">
+        <v>-0.06757435047111049</v>
+      </c>
+      <c r="F28">
+        <v>-0.01013963520806552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01541723573713184</v>
+        <v>0.02764455391291556</v>
       </c>
       <c r="C29">
-        <v>-0.02519394305485146</v>
+        <v>0.008227715415260234</v>
       </c>
       <c r="D29">
-        <v>-0.002627786277837134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03183694580413132</v>
+      </c>
+      <c r="E29">
+        <v>0.0111858242386425</v>
+      </c>
+      <c r="F29">
+        <v>0.01171427588664157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.02553252164666721</v>
+        <v>0.06113152159699134</v>
       </c>
       <c r="C30">
-        <v>-0.1244400747398973</v>
+        <v>0.003196612440664254</v>
       </c>
       <c r="D30">
-        <v>0.03254045172625074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0889435027177197</v>
+      </c>
+      <c r="E30">
+        <v>0.01937681797753141</v>
+      </c>
+      <c r="F30">
+        <v>-0.08308456282999341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02328710807068273</v>
+        <v>0.05007357201716591</v>
       </c>
       <c r="C31">
-        <v>-0.03375704400728223</v>
+        <v>0.01514982353799783</v>
       </c>
       <c r="D31">
-        <v>0.005402280213326618</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02469571540393232</v>
+      </c>
+      <c r="E31">
+        <v>0.02740711606420516</v>
+      </c>
+      <c r="F31">
+        <v>0.002231823618880838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01230822494865167</v>
+        <v>0.05007244554477457</v>
       </c>
       <c r="C32">
-        <v>-0.06300959079705644</v>
+        <v>-0.001607821933528586</v>
       </c>
       <c r="D32">
-        <v>-0.01353813982233502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03682356248230193</v>
+      </c>
+      <c r="E32">
+        <v>0.03170810747495027</v>
+      </c>
+      <c r="F32">
+        <v>-0.003238713940745195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.03065332738026371</v>
+        <v>0.08954890570445243</v>
       </c>
       <c r="C33">
-        <v>-0.1060172076263461</v>
+        <v>0.007487887029567617</v>
       </c>
       <c r="D33">
-        <v>0.03270047940431021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09925872722511733</v>
+      </c>
+      <c r="E33">
+        <v>0.04364866697127225</v>
+      </c>
+      <c r="F33">
+        <v>-0.0354465608895646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03174407383622701</v>
+        <v>0.06760286062851097</v>
       </c>
       <c r="C34">
-        <v>-0.09172630411974969</v>
+        <v>0.01039382353726074</v>
       </c>
       <c r="D34">
-        <v>0.04621492155287056</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1077347388400953</v>
+      </c>
+      <c r="E34">
+        <v>0.0344634073921132</v>
+      </c>
+      <c r="F34">
+        <v>-0.03332779465234423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.006331745661565252</v>
+        <v>0.02441654934065626</v>
       </c>
       <c r="C35">
-        <v>-0.01886193311092043</v>
+        <v>0.002395604449381189</v>
       </c>
       <c r="D35">
-        <v>0.0005776159626053432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0113486690053346</v>
+      </c>
+      <c r="E35">
+        <v>0.01146069774715259</v>
+      </c>
+      <c r="F35">
+        <v>-0.0005485600385200946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01421818881698063</v>
+        <v>0.02782501352681894</v>
       </c>
       <c r="C36">
-        <v>-0.02680665814443318</v>
+        <v>0.007049089256685556</v>
       </c>
       <c r="D36">
-        <v>0.010194743740772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03948398369995275</v>
+      </c>
+      <c r="E36">
+        <v>0.01652587010034784</v>
+      </c>
+      <c r="F36">
+        <v>-0.01466734568553501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003588017252511599</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-8.827104297830331e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004135711066950302</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004567739528413741</v>
+      </c>
+      <c r="F37">
+        <v>-0.0005995041367942534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0007219636973037375</v>
+        <v>0.001440686790612709</v>
       </c>
       <c r="C38">
-        <v>-0.003660384573804822</v>
+        <v>0.0002406543777853532</v>
       </c>
       <c r="D38">
-        <v>-0.002473565398106977</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003041471769502828</v>
+      </c>
+      <c r="E38">
+        <v>0.0003770822577765857</v>
+      </c>
+      <c r="F38">
+        <v>0.0009481752277090367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04837416981458945</v>
+        <v>0.1052648298816205</v>
       </c>
       <c r="C39">
-        <v>-0.1477855680512783</v>
+        <v>0.01565901146232011</v>
       </c>
       <c r="D39">
-        <v>0.08304688478666003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539466315354931</v>
+      </c>
+      <c r="E39">
+        <v>0.05897384723393095</v>
+      </c>
+      <c r="F39">
+        <v>-0.029284612065518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01214878647170325</v>
+        <v>0.04191180615348231</v>
       </c>
       <c r="C40">
-        <v>-0.009596070531073581</v>
+        <v>0.006636010232335877</v>
       </c>
       <c r="D40">
-        <v>-0.004796616635226902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03167497278974814</v>
+      </c>
+      <c r="E40">
+        <v>0.00273433128681299</v>
+      </c>
+      <c r="F40">
+        <v>0.01606399191483689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0124293782276113</v>
+        <v>0.02805947741420722</v>
       </c>
       <c r="C41">
-        <v>-0.01753717780774517</v>
+        <v>0.006819813303433181</v>
       </c>
       <c r="D41">
-        <v>-0.01224541968276074</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0101232444778744</v>
+      </c>
+      <c r="E41">
+        <v>0.01244516698998051</v>
+      </c>
+      <c r="F41">
+        <v>0.006356912517744929</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01464638887923687</v>
+        <v>0.04070395449752296</v>
       </c>
       <c r="C43">
-        <v>-0.02671229731391902</v>
+        <v>0.006791588423207559</v>
       </c>
       <c r="D43">
-        <v>-0.006716404384208638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01963297102349624</v>
+      </c>
+      <c r="E43">
+        <v>0.02464714894697507</v>
+      </c>
+      <c r="F43">
+        <v>0.01295360426442783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.04382282183040438</v>
+        <v>0.07944860183845667</v>
       </c>
       <c r="C44">
-        <v>-0.1231693662760823</v>
+        <v>0.01990386207923447</v>
       </c>
       <c r="D44">
-        <v>0.0224709536724035</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09774157333269826</v>
+      </c>
+      <c r="E44">
+        <v>0.0650261788701543</v>
+      </c>
+      <c r="F44">
+        <v>-0.1562459801384738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005769315578999803</v>
+        <v>0.02313413502383119</v>
       </c>
       <c r="C46">
-        <v>-0.006365701755217367</v>
+        <v>0.003344573132563447</v>
       </c>
       <c r="D46">
-        <v>-0.01453983656003307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01306101523807655</v>
+      </c>
+      <c r="E46">
+        <v>0.02200131897053663</v>
+      </c>
+      <c r="F46">
+        <v>0.006236201077974535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0124672190901541</v>
+        <v>0.05123667940670597</v>
       </c>
       <c r="C47">
-        <v>-0.02977308731878749</v>
+        <v>0.003419259214159772</v>
       </c>
       <c r="D47">
-        <v>-0.02536010247528159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01380749227006399</v>
+      </c>
+      <c r="E47">
+        <v>0.02336602159229566</v>
+      </c>
+      <c r="F47">
+        <v>0.03367449924873626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01473466858748144</v>
+        <v>0.04991051819558451</v>
       </c>
       <c r="C48">
-        <v>-0.04806893687037272</v>
+        <v>0.002437031329287629</v>
       </c>
       <c r="D48">
-        <v>0.02424606299914625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04985632057086324</v>
+      </c>
+      <c r="E48">
+        <v>-0.006093842177620584</v>
+      </c>
+      <c r="F48">
+        <v>-0.009558732929901941</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.05546368993054747</v>
+        <v>0.2003424990074568</v>
       </c>
       <c r="C49">
-        <v>-0.221379215057813</v>
+        <v>0.01880571694833062</v>
       </c>
       <c r="D49">
-        <v>-0.0587763211431391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008023747580662431</v>
+      </c>
+      <c r="E49">
+        <v>0.03078745526058513</v>
+      </c>
+      <c r="F49">
+        <v>-0.03915953745797814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02073479846625924</v>
+        <v>0.05057890525556698</v>
       </c>
       <c r="C50">
-        <v>-0.037027981636471</v>
+        <v>0.01114658365289982</v>
       </c>
       <c r="D50">
-        <v>-0.001538625287640515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02369356868106834</v>
+      </c>
+      <c r="E50">
+        <v>0.02959062385901493</v>
+      </c>
+      <c r="F50">
+        <v>-0.009147505734139633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0002857573626544316</v>
+        <v>0.0004542839847895995</v>
       </c>
       <c r="C51">
-        <v>-0.001036321321646784</v>
+        <v>0.000127428275085583</v>
       </c>
       <c r="D51">
-        <v>-0.0009077611510823629</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0001637415462365452</v>
+      </c>
+      <c r="E51">
+        <v>1.098925116233256e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.001835238883446792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.04110983282854003</v>
+        <v>0.1462614172903727</v>
       </c>
       <c r="C52">
-        <v>-0.1490463845902797</v>
+        <v>0.01576089911837807</v>
       </c>
       <c r="D52">
-        <v>0.02180987385663076</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0446609107225779</v>
+      </c>
+      <c r="E52">
+        <v>0.0206271227149764</v>
+      </c>
+      <c r="F52">
+        <v>-0.04171047289673594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.04506430526672787</v>
+        <v>0.1719143516951524</v>
       </c>
       <c r="C53">
-        <v>-0.1711894425481201</v>
+        <v>0.01882453585864423</v>
       </c>
       <c r="D53">
-        <v>-0.01279972372822487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006729815938803874</v>
+      </c>
+      <c r="E53">
+        <v>0.03202606505071363</v>
+      </c>
+      <c r="F53">
+        <v>-0.07275557269056265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01751291900929935</v>
+        <v>0.02235107892682712</v>
       </c>
       <c r="C54">
-        <v>-0.03185122619935776</v>
+        <v>0.01214420208283017</v>
       </c>
       <c r="D54">
-        <v>0.0035101666598433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0345520010608257</v>
+      </c>
+      <c r="E54">
+        <v>0.01870526477644713</v>
+      </c>
+      <c r="F54">
+        <v>0.004051836057683964</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.03165546295925495</v>
+        <v>0.1140254024925541</v>
       </c>
       <c r="C55">
-        <v>-0.09116222192571688</v>
+        <v>0.01644183290921914</v>
       </c>
       <c r="D55">
-        <v>0.004845150434208535</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009662691243677477</v>
+      </c>
+      <c r="E55">
+        <v>0.02828555958269587</v>
+      </c>
+      <c r="F55">
+        <v>-0.0475953965352747</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.04125208947615235</v>
+        <v>0.1768290204124562</v>
       </c>
       <c r="C56">
-        <v>-0.1604602847157827</v>
+        <v>0.01640106395853519</v>
       </c>
       <c r="D56">
-        <v>-0.0145892417060891</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.000728595277409327</v>
+      </c>
+      <c r="E56">
+        <v>0.03571245072011233</v>
+      </c>
+      <c r="F56">
+        <v>-0.05154947112479943</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01587143813151742</v>
+        <v>0.04604826138225767</v>
       </c>
       <c r="C58">
-        <v>-0.04998619274102985</v>
+        <v>0.0004081555149173082</v>
       </c>
       <c r="D58">
-        <v>0.01743552094586749</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06767901397796644</v>
+      </c>
+      <c r="E58">
+        <v>0.02714696971846828</v>
+      </c>
+      <c r="F58">
+        <v>0.03667804223226638</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.02603594930931547</v>
+        <v>0.1683503662094059</v>
       </c>
       <c r="C59">
-        <v>-0.1110561440572544</v>
+        <v>0.02082050742383822</v>
       </c>
       <c r="D59">
-        <v>-0.2128149311465627</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183490528431895</v>
+      </c>
+      <c r="E59">
+        <v>-0.04644696261599796</v>
+      </c>
+      <c r="F59">
+        <v>0.03437313446457108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04359724219522054</v>
+        <v>0.2317706307358134</v>
       </c>
       <c r="C60">
-        <v>-0.2675458490272543</v>
+        <v>-0.002818040291669047</v>
       </c>
       <c r="D60">
-        <v>-0.0001799971111997921</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04220875011951805</v>
+      </c>
+      <c r="E60">
+        <v>0.0112325602571104</v>
+      </c>
+      <c r="F60">
+        <v>0.006368485652445831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03584493965486369</v>
+        <v>0.08164570843977477</v>
       </c>
       <c r="C61">
-        <v>-0.1196924990633237</v>
+        <v>0.01157831237956455</v>
       </c>
       <c r="D61">
-        <v>0.0377068296196366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1168607788684139</v>
+      </c>
+      <c r="E61">
+        <v>0.03882687942587978</v>
+      </c>
+      <c r="F61">
+        <v>-0.01101562976931572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04452548306231486</v>
+        <v>0.1704105844675093</v>
       </c>
       <c r="C62">
-        <v>-0.1629196088842237</v>
+        <v>0.01972808082847352</v>
       </c>
       <c r="D62">
-        <v>-0.008073865392664767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006798619303451588</v>
+      </c>
+      <c r="E62">
+        <v>0.03543599433586723</v>
+      </c>
+      <c r="F62">
+        <v>-0.03322690555926094</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0142660200511818</v>
+        <v>0.04588685979714444</v>
       </c>
       <c r="C63">
-        <v>-0.04882568091575113</v>
+        <v>0.001860936652554402</v>
       </c>
       <c r="D63">
-        <v>0.02353596154546801</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.058193135318518</v>
+      </c>
+      <c r="E63">
+        <v>0.02143026071282041</v>
+      </c>
+      <c r="F63">
+        <v>-0.00499751020530607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.03117797921839686</v>
+        <v>0.1104212970540145</v>
       </c>
       <c r="C64">
-        <v>-0.09401401464530849</v>
+        <v>0.01097965990264701</v>
       </c>
       <c r="D64">
-        <v>-0.001100643854492683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04347793872294015</v>
+      </c>
+      <c r="E64">
+        <v>0.02481027338332246</v>
+      </c>
+      <c r="F64">
+        <v>-0.02566756994128701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.05264261747571506</v>
+        <v>0.1475187113865656</v>
       </c>
       <c r="C65">
-        <v>-0.1190250806335503</v>
+        <v>0.03261663309458655</v>
       </c>
       <c r="D65">
-        <v>-0.03758329889757994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04043326298910178</v>
+      </c>
+      <c r="E65">
+        <v>0.005134339241496026</v>
+      </c>
+      <c r="F65">
+        <v>-0.04001425344627709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04920099711174666</v>
+        <v>0.1246257077780417</v>
       </c>
       <c r="C66">
-        <v>-0.1753197091351313</v>
+        <v>0.01373195291979973</v>
       </c>
       <c r="D66">
-        <v>0.0723408513540908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.142460518900271</v>
+      </c>
+      <c r="E66">
+        <v>0.06635647374688065</v>
+      </c>
+      <c r="F66">
+        <v>-0.03138640011204077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01791660966946538</v>
+        <v>0.06055636470335791</v>
       </c>
       <c r="C67">
-        <v>-0.07102036300098695</v>
+        <v>0.003217476751025312</v>
       </c>
       <c r="D67">
-        <v>0.006656457823782228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05561546848837288</v>
+      </c>
+      <c r="E67">
+        <v>0.01765281418969775</v>
+      </c>
+      <c r="F67">
+        <v>0.03428052958444087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.02343575933530644</v>
+        <v>0.1163135505879276</v>
       </c>
       <c r="C68">
-        <v>-0.0357672553857317</v>
+        <v>0.03111015937539313</v>
       </c>
       <c r="D68">
-        <v>-0.1805273865393011</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2603048112385569</v>
+      </c>
+      <c r="E68">
+        <v>-0.08639466248603832</v>
+      </c>
+      <c r="F68">
+        <v>-0.005968676509295636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.008383737805453512</v>
+        <v>0.03987701227646559</v>
       </c>
       <c r="C69">
-        <v>-0.03665450205902866</v>
+        <v>0.001404003056979827</v>
       </c>
       <c r="D69">
-        <v>-0.02037680163754831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006961579944175644</v>
+      </c>
+      <c r="E69">
+        <v>0.02269259769525977</v>
+      </c>
+      <c r="F69">
+        <v>0.0007107887864402332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.01500134637819982</v>
+        <v>0.06565115609027124</v>
       </c>
       <c r="C70">
-        <v>-0.01653281442278227</v>
+        <v>-0.02786074698117531</v>
       </c>
       <c r="D70">
-        <v>-0.03327424992884984</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02486164186008631</v>
+      </c>
+      <c r="E70">
+        <v>-0.03931452962690485</v>
+      </c>
+      <c r="F70">
+        <v>0.1853711542546646</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02906065733971956</v>
+        <v>0.1363942714349325</v>
       </c>
       <c r="C71">
-        <v>-0.04971118118850484</v>
+        <v>0.03549154071463481</v>
       </c>
       <c r="D71">
-        <v>-0.197907414851141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2728467630046159</v>
+      </c>
+      <c r="E71">
+        <v>-0.09602338569098998</v>
+      </c>
+      <c r="F71">
+        <v>-0.01236456371457635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.04697870385299521</v>
+        <v>0.1418672879419719</v>
       </c>
       <c r="C72">
-        <v>-0.1250953953272217</v>
+        <v>0.02593530364329474</v>
       </c>
       <c r="D72">
-        <v>-0.03590641300148634</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0008148336429030257</v>
+      </c>
+      <c r="E72">
+        <v>0.03882093207998577</v>
+      </c>
+      <c r="F72">
+        <v>-0.03296053297611718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.04979578789986271</v>
+        <v>0.2014542660866817</v>
       </c>
       <c r="C73">
-        <v>-0.2165537516004138</v>
+        <v>0.01223409612351607</v>
       </c>
       <c r="D73">
-        <v>-0.05251897847785918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0167917751621117</v>
+      </c>
+      <c r="E73">
+        <v>0.06329073843417318</v>
+      </c>
+      <c r="F73">
+        <v>-0.03750215046886073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.03107140131548289</v>
+        <v>0.09437048735718744</v>
       </c>
       <c r="C74">
-        <v>-0.1175056752320499</v>
+        <v>0.01324993077647406</v>
       </c>
       <c r="D74">
-        <v>-0.02856570108104025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01693755361462908</v>
+      </c>
+      <c r="E74">
+        <v>0.04380495617778232</v>
+      </c>
+      <c r="F74">
+        <v>-0.0564490651383023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.05021613907153591</v>
+        <v>0.1279499804488572</v>
       </c>
       <c r="C75">
-        <v>-0.1322970227790831</v>
+        <v>0.02786746636681097</v>
       </c>
       <c r="D75">
-        <v>-0.02049163515945369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03002406857488854</v>
+      </c>
+      <c r="E75">
+        <v>0.05831645838234031</v>
+      </c>
+      <c r="F75">
+        <v>-0.01850816517577171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-8.395029533760803e-05</v>
+        <v>0.0001404531553721325</v>
       </c>
       <c r="C76">
-        <v>-0.0003798911595135385</v>
+        <v>7.094517524846656e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0007869690264370819</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0004471879256950966</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001566355051374607</v>
+      </c>
+      <c r="F76">
+        <v>-0.0002866258096069867</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02995628559778861</v>
+        <v>0.086871453399227</v>
       </c>
       <c r="C77">
-        <v>-0.09523678826583012</v>
+        <v>0.008030368323223644</v>
       </c>
       <c r="D77">
-        <v>0.06538393319842783</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1132845045805838</v>
+      </c>
+      <c r="E77">
+        <v>0.03939654780655235</v>
+      </c>
+      <c r="F77">
+        <v>-0.03307434828404057</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06737086289522397</v>
+        <v>0.1007479574149455</v>
       </c>
       <c r="C78">
-        <v>-0.1360174723737241</v>
+        <v>0.03938537455981186</v>
       </c>
       <c r="D78">
-        <v>-0.005548607003874514</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1159500663372161</v>
+      </c>
+      <c r="E78">
+        <v>0.07380183258847292</v>
+      </c>
+      <c r="F78">
+        <v>-0.04559225349653933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04617142426308005</v>
+        <v>0.1644024691949094</v>
       </c>
       <c r="C79">
-        <v>-0.1406681338349751</v>
+        <v>0.02228358386027068</v>
       </c>
       <c r="D79">
-        <v>-0.02424521593742449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01500453464239023</v>
+      </c>
+      <c r="E79">
+        <v>0.04634646557241823</v>
+      </c>
+      <c r="F79">
+        <v>-0.01081588043841795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01604852534267586</v>
+        <v>0.08287256710715765</v>
       </c>
       <c r="C80">
-        <v>-0.08439182440680611</v>
+        <v>-0.0007708803554647347</v>
       </c>
       <c r="D80">
-        <v>0.0007875757497131706</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05595006094689264</v>
+      </c>
+      <c r="E80">
+        <v>0.03669521950139532</v>
+      </c>
+      <c r="F80">
+        <v>0.02375345656939327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.05255982007205126</v>
+        <v>0.1214403174830816</v>
       </c>
       <c r="C81">
-        <v>-0.1381864249191056</v>
+        <v>0.0317332982617141</v>
       </c>
       <c r="D81">
-        <v>-0.01439757721352549</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0151411783246832</v>
+      </c>
+      <c r="E81">
+        <v>0.05729674419255129</v>
+      </c>
+      <c r="F81">
+        <v>-0.01638108255973614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04952232631706067</v>
+        <v>0.1658082873706222</v>
       </c>
       <c r="C82">
-        <v>-0.1617217809656889</v>
+        <v>0.02410250321077419</v>
       </c>
       <c r="D82">
-        <v>-0.01346865319653472</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004092487377288222</v>
+      </c>
+      <c r="E82">
+        <v>0.02869653847408299</v>
+      </c>
+      <c r="F82">
+        <v>-0.08012175617278941</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02048149386314902</v>
+        <v>0.05980323337142129</v>
       </c>
       <c r="C83">
-        <v>-0.06593218137354394</v>
+        <v>0.002851383679812118</v>
       </c>
       <c r="D83">
-        <v>0.01648250824135363</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05141190586846777</v>
+      </c>
+      <c r="E83">
+        <v>0.005357485585961505</v>
+      </c>
+      <c r="F83">
+        <v>0.03172716568998039</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02830551047666963</v>
+        <v>0.05872565249577991</v>
       </c>
       <c r="C84">
-        <v>-0.07165845286136806</v>
+        <v>0.01101978061690272</v>
       </c>
       <c r="D84">
-        <v>0.03647390944458041</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06372586317201509</v>
+      </c>
+      <c r="E84">
+        <v>0.006562506890108755</v>
+      </c>
+      <c r="F84">
+        <v>-0.003817642189856244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04850449812186973</v>
+        <v>0.1366167866352182</v>
       </c>
       <c r="C85">
-        <v>-0.1220111136105827</v>
+        <v>0.02761303349558755</v>
       </c>
       <c r="D85">
-        <v>-0.01294481164014991</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0102790045383502</v>
+      </c>
+      <c r="E85">
+        <v>0.03829939722606363</v>
+      </c>
+      <c r="F85">
+        <v>-0.04578311017600988</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01474339508611601</v>
+        <v>0.0944170129786837</v>
       </c>
       <c r="C86">
-        <v>-0.08575281667781073</v>
+        <v>-0.006231185041935342</v>
       </c>
       <c r="D86">
-        <v>-0.1476155621072162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04070949277787279</v>
+      </c>
+      <c r="E86">
+        <v>0.2118689106800998</v>
+      </c>
+      <c r="F86">
+        <v>0.9077819549361946</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04758544426907019</v>
+        <v>0.09709233871981211</v>
       </c>
       <c r="C87">
-        <v>-0.1150120768779452</v>
+        <v>0.01966083153675017</v>
       </c>
       <c r="D87">
-        <v>0.06355084254773398</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09569072582817932</v>
+      </c>
+      <c r="E87">
+        <v>-0.05100054492028888</v>
+      </c>
+      <c r="F87">
+        <v>-0.05441686274918012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01721637852900078</v>
+        <v>0.06084622443972719</v>
       </c>
       <c r="C88">
-        <v>-0.05864798653815011</v>
+        <v>0.002171600272428039</v>
       </c>
       <c r="D88">
-        <v>0.005656712132141169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04956222134759079</v>
+      </c>
+      <c r="E88">
+        <v>0.0244965683800653</v>
+      </c>
+      <c r="F88">
+        <v>-0.01205132281986948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.01173340985294396</v>
+        <v>0.1335694401017631</v>
       </c>
       <c r="C89">
-        <v>-0.06499543099039236</v>
+        <v>0.01291204119586283</v>
       </c>
       <c r="D89">
-        <v>-0.2255039312566263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2503698592011378</v>
+      </c>
+      <c r="E89">
+        <v>-0.09125517571109518</v>
+      </c>
+      <c r="F89">
+        <v>0.00769850078101058</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02840644070097408</v>
+        <v>0.1509127592198753</v>
       </c>
       <c r="C90">
-        <v>-0.05634319518984789</v>
+        <v>0.03177320688209167</v>
       </c>
       <c r="D90">
-        <v>-0.1995715849317442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.269802363783621</v>
+      </c>
+      <c r="E90">
+        <v>-0.1128314739614828</v>
+      </c>
+      <c r="F90">
+        <v>0.001369618231654467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.03246641163345464</v>
+        <v>0.1206440615407982</v>
       </c>
       <c r="C91">
-        <v>-0.1058088864161428</v>
+        <v>0.01887486369442129</v>
       </c>
       <c r="D91">
-        <v>-0.03171315997901897</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01338940695789183</v>
+      </c>
+      <c r="E91">
+        <v>0.05631965450689883</v>
+      </c>
+      <c r="F91">
+        <v>0.002623296023153178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.01542202701536905</v>
+        <v>0.1477477861614475</v>
       </c>
       <c r="C92">
-        <v>-0.06789279654277605</v>
+        <v>0.02337523353113292</v>
       </c>
       <c r="D92">
-        <v>-0.2232935170827963</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2922351619841756</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015573751570644</v>
+      </c>
+      <c r="F92">
+        <v>0.01289358906749537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.02421328686957473</v>
+        <v>0.1522827014701474</v>
       </c>
       <c r="C93">
-        <v>-0.06131880473046821</v>
+        <v>0.02762529153953196</v>
       </c>
       <c r="D93">
-        <v>-0.2201948441997214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2691652322151573</v>
+      </c>
+      <c r="E93">
+        <v>-0.07804159562428319</v>
+      </c>
+      <c r="F93">
+        <v>-0.003470978799091734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.0478477785767371</v>
+        <v>0.1303855904470581</v>
       </c>
       <c r="C94">
-        <v>-0.1440946148477427</v>
+        <v>0.02462233081945245</v>
       </c>
       <c r="D94">
-        <v>-0.0033598404796069</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04302734976192424</v>
+      </c>
+      <c r="E94">
+        <v>0.05817817177529834</v>
+      </c>
+      <c r="F94">
+        <v>-0.03588809758362851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.03365433436139872</v>
+        <v>0.1270523328232952</v>
       </c>
       <c r="C95">
-        <v>-0.1324909201929136</v>
+        <v>0.003791869494900525</v>
       </c>
       <c r="D95">
-        <v>0.03561239468818908</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0913423237244937</v>
+      </c>
+      <c r="E95">
+        <v>0.0464405416817885</v>
+      </c>
+      <c r="F95">
+        <v>0.008224584428629158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9582496924113379</v>
+        <v>0.1056574068337958</v>
       </c>
       <c r="C96">
-        <v>-0.2693767842249145</v>
+        <v>-0.9876355642960331</v>
       </c>
       <c r="D96">
-        <v>-0.02990002758845429</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0470890908594735</v>
+      </c>
+      <c r="E96">
+        <v>0.05551393373838937</v>
+      </c>
+      <c r="F96">
+        <v>-0.04228710842006016</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.02093429816949512</v>
+        <v>0.1923951306150637</v>
       </c>
       <c r="C97">
-        <v>-0.1609911290754857</v>
+        <v>-0.007432480739390584</v>
       </c>
       <c r="D97">
-        <v>-0.1033962447833581</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01756134121158898</v>
+      </c>
+      <c r="E97">
+        <v>0.01827204784634591</v>
+      </c>
+      <c r="F97">
+        <v>0.09270528802466586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03721743151368828</v>
+        <v>0.2046271395720708</v>
       </c>
       <c r="C98">
-        <v>-0.1967889680242406</v>
+        <v>0.006917315304702727</v>
       </c>
       <c r="D98">
-        <v>-0.0004615069373352372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01405811120417123</v>
+      </c>
+      <c r="E98">
+        <v>-0.08373944263160726</v>
+      </c>
+      <c r="F98">
+        <v>0.09411610993947943</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.007397064728414169</v>
+        <v>0.05581519582515181</v>
       </c>
       <c r="C99">
-        <v>-0.06161471227579986</v>
+        <v>-0.00480232511144689</v>
       </c>
       <c r="D99">
-        <v>-0.003766856273961837</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03940114862619423</v>
+      </c>
+      <c r="E99">
+        <v>0.02289249260948248</v>
+      </c>
+      <c r="F99">
+        <v>-0.001369583792605674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.002128769533736277</v>
+        <v>0.1255451834010972</v>
       </c>
       <c r="C100">
-        <v>-0.1529208908680406</v>
+        <v>-0.05438452235494766</v>
       </c>
       <c r="D100">
-        <v>0.7302924744950355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3444191268477906</v>
+      </c>
+      <c r="E100">
+        <v>-0.889253591796174</v>
+      </c>
+      <c r="F100">
+        <v>0.1404322283537837</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01527853603870502</v>
+        <v>0.02760293007743366</v>
       </c>
       <c r="C101">
-        <v>-0.02503386822416823</v>
+        <v>0.008251387522448823</v>
       </c>
       <c r="D101">
-        <v>-0.00268959218502341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03144397761884308</v>
+      </c>
+      <c r="E101">
+        <v>0.01055380425596716</v>
+      </c>
+      <c r="F101">
+        <v>0.01292743491335114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
